--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H2">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>6.025661570901555</v>
+        <v>34.47026378469333</v>
       </c>
       <c r="R2">
-        <v>54.230954138114</v>
+        <v>310.23237406224</v>
       </c>
       <c r="S2">
-        <v>0.01264121347631856</v>
+        <v>0.04130883054773786</v>
       </c>
       <c r="T2">
-        <v>0.01264121347631856</v>
+        <v>0.04130883054773787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H3">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>9.712292881804444</v>
+        <v>58.43130512426666</v>
       </c>
       <c r="R3">
-        <v>87.41063593624001</v>
+        <v>525.8817461184</v>
       </c>
       <c r="S3">
-        <v>0.02037538388420471</v>
+        <v>0.0700235106159334</v>
       </c>
       <c r="T3">
-        <v>0.02037538388420471</v>
+        <v>0.07002351061593343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H4">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>3.068438666275222</v>
+        <v>55.585847618</v>
       </c>
       <c r="R4">
-        <v>27.615947996477</v>
+        <v>500.272628562</v>
       </c>
       <c r="S4">
-        <v>0.006437266308929419</v>
+        <v>0.06661354187617129</v>
       </c>
       <c r="T4">
-        <v>0.006437266308929417</v>
+        <v>0.06661354187617131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H5">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>1.555996116079333</v>
+        <v>9.857884687093334</v>
       </c>
       <c r="R5">
-        <v>14.003965044714</v>
+        <v>88.72096218384</v>
       </c>
       <c r="S5">
-        <v>0.003264318588131137</v>
+        <v>0.01181359361337714</v>
       </c>
       <c r="T5">
-        <v>0.003264318588131136</v>
+        <v>0.01181359361337714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>117.68608394855</v>
+        <v>111.90285481355</v>
       </c>
       <c r="R6">
-        <v>1059.17475553695</v>
+        <v>1007.12569332195</v>
       </c>
       <c r="S6">
-        <v>0.2468932071409016</v>
+        <v>0.1341032983145816</v>
       </c>
       <c r="T6">
-        <v>0.2468932071409016</v>
+        <v>0.1341032983145816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
         <v>189.688999618</v>
@@ -883,10 +883,10 @@
         <v>1707.200996562</v>
       </c>
       <c r="S7">
-        <v>0.3979478618348088</v>
+        <v>0.2273214615047248</v>
       </c>
       <c r="T7">
-        <v>0.3979478618348087</v>
+        <v>0.2273214615047248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>59.92910923077499</v>
+        <v>180.451622724375</v>
       </c>
       <c r="R8">
-        <v>539.361983076975</v>
+        <v>1624.064604519375</v>
       </c>
       <c r="S8">
-        <v>0.1257250601146012</v>
+        <v>0.2162514784263304</v>
       </c>
       <c r="T8">
-        <v>0.1257250601146012</v>
+        <v>0.2162514784263305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>20.610225</v>
       </c>
       <c r="I9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>30.38987294355</v>
+        <v>32.00223374555</v>
       </c>
       <c r="R9">
-        <v>273.50885649195</v>
+        <v>288.02010370995</v>
       </c>
       <c r="S9">
-        <v>0.06375480382980334</v>
+        <v>0.03835116723217685</v>
       </c>
       <c r="T9">
-        <v>0.06375480382980331</v>
+        <v>0.03835116723217686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H10">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>4.740441924388445</v>
+        <v>29.21339001664023</v>
       </c>
       <c r="R10">
-        <v>42.663977319496</v>
+        <v>262.920510149762</v>
       </c>
       <c r="S10">
-        <v>0.009944955858070004</v>
+        <v>0.03500904389534262</v>
       </c>
       <c r="T10">
-        <v>0.009944955858069999</v>
+        <v>0.03500904389534262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H11">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>7.640747794595556</v>
+        <v>49.52026234665778</v>
       </c>
       <c r="R11">
-        <v>68.76673015136001</v>
+        <v>445.68236111992</v>
       </c>
       <c r="S11">
-        <v>0.01602949698612782</v>
+        <v>0.05934460318420824</v>
       </c>
       <c r="T11">
-        <v>0.01602949698612782</v>
+        <v>0.05934460318420825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H12">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>2.413968180069777</v>
+        <v>47.10875019735833</v>
       </c>
       <c r="R12">
-        <v>21.725713620628</v>
+        <v>423.978751776225</v>
       </c>
       <c r="S12">
-        <v>0.005064255058177217</v>
+        <v>0.05645467036090745</v>
       </c>
       <c r="T12">
-        <v>0.005064255058177215</v>
+        <v>0.05645467036090746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H13">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>1.224116080210667</v>
+        <v>8.35451193242689</v>
       </c>
       <c r="R13">
-        <v>11.017044721896</v>
+        <v>75.19060739184201</v>
       </c>
       <c r="S13">
-        <v>0.002568068668918305</v>
+        <v>0.01001196625245804</v>
       </c>
       <c r="T13">
-        <v>0.002568068668918303</v>
+        <v>0.01001196625245805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H14">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N14">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q14">
-        <v>12.60394492077645</v>
+        <v>6.065888370205111</v>
       </c>
       <c r="R14">
-        <v>113.435504286988</v>
+        <v>54.592995331846</v>
       </c>
       <c r="S14">
-        <v>0.02644177017121415</v>
+        <v>0.007269301922707234</v>
       </c>
       <c r="T14">
-        <v>0.02644177017121414</v>
+        <v>0.007269301922707234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H15">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P15">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q15">
-        <v>20.31531361267556</v>
+        <v>10.28242128992889</v>
       </c>
       <c r="R15">
-        <v>182.83782251408</v>
+        <v>92.54179160935999</v>
       </c>
       <c r="S15">
-        <v>0.04261942248073659</v>
+        <v>0.01232235416993643</v>
       </c>
       <c r="T15">
-        <v>0.04261942248073658</v>
+        <v>0.01232235416993643</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H16">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N16">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q16">
-        <v>6.418288097903778</v>
+        <v>9.781693250741666</v>
       </c>
       <c r="R16">
-        <v>57.76459288113401</v>
+        <v>88.035239256675</v>
       </c>
       <c r="S16">
-        <v>0.01346490323816459</v>
+        <v>0.01172228653336467</v>
       </c>
       <c r="T16">
-        <v>0.01346490323816459</v>
+        <v>0.01172228653336468</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H17">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N17">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O17">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P17">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q17">
-        <v>3.254694793798667</v>
+        <v>1.734736596498444</v>
       </c>
       <c r="R17">
-        <v>29.292253144188</v>
+        <v>15.612629368486</v>
       </c>
       <c r="S17">
-        <v>0.006828012360892641</v>
+        <v>0.002078891550041885</v>
       </c>
       <c r="T17">
-        <v>0.006828012360892638</v>
+        <v>0.002078891550041885</v>
       </c>
     </row>
   </sheetData>
